--- a/Musicle/FireBase/FirebaseDatabase.xlsx
+++ b/Musicle/FireBase/FirebaseDatabase.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amitkulkarni/Documents/XcodeProjects/Musicle/Musicle/FireBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8BF0F115-4153-024D-BE72-73A73492FC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7C18CC-3594-D342-90B6-6918BE25CB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14920" yWindow="500" windowWidth="13880" windowHeight="17500"/>
+    <workbookView xWindow="1040" yWindow="500" windowWidth="27760" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FirebaseDatabase" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>0gplL1WMoJ6iYaPgMCL0gX</t>
   </si>
@@ -194,12 +194,24 @@
   </si>
   <si>
     <t>Dance, Pop</t>
+  </si>
+  <si>
+    <t>7MTZVwYiEahXQIyCU2FLPV</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>0tBbt8CrmxbjRP0pueQkyU</t>
+  </si>
+  <si>
+    <t>Wolves</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1041,11 +1053,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1085,10 +1097,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -1183,10 +1195,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -1339,6 +1351,31 @@
       </c>
       <c r="D27" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
